--- a/user-data/avg-income-of-extreme-poor/avg-income-of-extreme-poor.xlsx
+++ b/user-data/avg-income-of-extreme-poor/avg-income-of-extreme-poor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>id</t>
   </si>
@@ -991,9 +991,6 @@
     <t>Source: Development Initiatives based on World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1379,42 +1376,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15">
@@ -1430,11 +1427,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/avg-income-of-extreme-poor/avg-income-of-extreme-poor.xlsx
+++ b/user-data/avg-income-of-extreme-poor/avg-income-of-extreme-poor.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-original-value" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>id</t>
   </si>
@@ -1000,7 +1001,10 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
+  </si>
+  <si>
+    <t>On the 'Data-wide-original-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'original-value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
@@ -1401,7 +1405,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13">
@@ -1411,22 +1415,32 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -37074,4 +37088,4436 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>1.2485</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>1.248625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>1.249625</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>1.24875</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.87575</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="n">
+        <v>1.044375</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.215875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.192875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.188125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.19425</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.214125</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.2245</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.22825</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.2295</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.233625</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.23275</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.238875</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.24025</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="n">
+        <v>1.196375</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.211125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.225875</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.22825</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.239125</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.24325</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.246125</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.246875</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.24525</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.246125</v>
+      </c>
+      <c r="P8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="n">
+        <v>1.23625</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="n">
+        <v>1.2485</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.017375</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="n">
+        <v>1.072875</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>1.110375</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.249625</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.24875</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.24875</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="n">
+        <v>1.053375</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" t="n">
+        <v>1.01475</v>
+      </c>
+      <c r="P13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>1.174375</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="n">
+        <v>1.227375</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14" t="n">
+        <v>1.245375</v>
+      </c>
+      <c r="P14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.09925</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.089625</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" t="n">
+        <v>1.186625</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.12775</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.1475</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.17175</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.184</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.1805</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.1975</v>
+      </c>
+      <c r="P15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="n">
+        <v>1.248875</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="n">
+        <v>1.249625</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" t="n">
+        <v>1.14325</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="n">
+        <v>1.200625</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="n">
+        <v>1.1925</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.203</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.19775</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.2065</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.2125</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.217375</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.21275</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.219875</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" t="n">
+        <v>1.218625</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22325</v>
+      </c>
+      <c r="P18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="n">
+        <v>1.244125</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="n">
+        <v>1.248875</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="n">
+        <v>1.248875</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="n">
+        <v>1.243125</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.239875</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="n">
+        <v>1.021875</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20" t="n">
+        <v>1.067625</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="n">
+        <v>0.795125</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="n">
+        <v>1.136125</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="n">
+        <v>1.0915</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" t="n">
+        <v>1.152625</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" t="n">
+        <v>1.1595</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.195125</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.22875</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.232125</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>1.166375</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" t="n">
+        <v>1.1595</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" t="n">
+        <v>1.174375</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" t="n">
+        <v>1.21025</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" t="n">
+        <v>0.89625</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26" t="n">
+        <v>0.85925</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>0.9295</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27" t="n">
+        <v>1.07275</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.239375</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="n">
+        <v>1.240625</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="n">
+        <v>1.24425</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28" t="n">
+        <v>1.24175</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28" t="n">
+        <v>1.24525</v>
+      </c>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="n">
+        <v>1.142875</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29" t="n">
+        <v>1.201125</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29" t="n">
+        <v>1.211625</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29" t="n">
+        <v>1.224625</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.2335</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.10675</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.13575</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.196875</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.2005</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.210125</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.214125</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.182375</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.199625</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.2045</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.211625</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.22475</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.220875</v>
+      </c>
+      <c r="P30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" t="n">
+        <v>0.98975</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32" t="n">
+        <v>0.96475</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32" t="n">
+        <v>1.106625</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.214625</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.20925</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.211125</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.21375</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.21725</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.2365</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.23225</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.228375</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.24275</v>
+      </c>
+      <c r="P33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.24925</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.248875</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.24925</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" t="n">
+        <v>1.183875</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.228875</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.237375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.22775</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.21925</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.2305</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.235625</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.237125</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.239375</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.24075</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.2435</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.242125</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.2425</v>
+      </c>
+      <c r="P39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41" t="n">
+        <v>1.244625</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41" t="n">
+        <v>1.245375</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.153375</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.14575</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.148125</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.157375</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.217375</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.236125</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.23375</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.23675</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.2295</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.242625</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="P42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.2485</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" t="n">
+        <v>1.238375</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.242625</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.245375</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.244875</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.241875</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.23725</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.23525</v>
+      </c>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.05325</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46" t="n">
+        <v>1.120125</v>
+      </c>
+      <c r="O46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" t="n">
+        <v>1.108875</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47" t="n">
+        <v>1.23575</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48" t="n">
+        <v>1.234375</v>
+      </c>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49" t="n">
+        <v>1.103875</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.16975</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.19225</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.18575</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.18925</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.1935</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.1915</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.194375</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.19175</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.178</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.179875</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.193375</v>
+      </c>
+      <c r="P50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51" t="n">
+        <v>1.1265</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.19325</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="n">
+        <v>1.124375</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.157375</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="H53"/>
+      <c r="I53" t="n">
+        <v>1.19125</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53" t="n">
+        <v>1.19025</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54" t="n">
+        <v>1.087375</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54" t="n">
+        <v>1.09125</v>
+      </c>
+      <c r="P54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55" t="n">
+        <v>1.043125</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57" t="n">
+        <v>0.846125</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="n">
+        <v>1.157125</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.07225</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.1045</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.113125</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.08725</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.11775</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.179125</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.190375</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.159875</v>
+      </c>
+      <c r="O58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59" t="n">
+        <v>1.249625</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.249375</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60" t="n">
+        <v>1.118625</v>
+      </c>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60" t="n">
+        <v>1.156375</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60" t="n">
+        <v>1.189530577</v>
+      </c>
+      <c r="P60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61" t="n">
+        <v>1.1745</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61" t="n">
+        <v>1.192625</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61" t="n">
+        <v>1.190875</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.2165</v>
+      </c>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62" t="n">
+        <v>1.24575</v>
+      </c>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="P63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="n">
+        <v>0.86775</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" t="n">
+        <v>1.24925</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.2415</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.2445</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.246625</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66" t="n">
+        <v>1.24925</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67" t="n">
+        <v>1.038625</v>
+      </c>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.1295</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.1525</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.15875</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.186625</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.221625</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.17625</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.2075</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.232625</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.23175</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.2325</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.23525</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71" t="n">
+        <v>1.113375</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71" t="n">
+        <v>1.135625</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71" t="n">
+        <v>1.15425</v>
+      </c>
+      <c r="P71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72" t="n">
+        <v>1.24825</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72" t="n">
+        <v>1.2405</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.238125</v>
+      </c>
+      <c r="O72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" t="n">
+        <v>0.899875</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74" t="n">
+        <v>0.885375</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75" t="n">
+        <v>0.73875</v>
+      </c>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.249125</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.239375</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.242375</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77" t="n">
+        <v>1.23425</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.239875</v>
+      </c>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.238875</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>1.248125</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.2485</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.24825</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.247125</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79" t="n">
+        <v>0.732875</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79" t="n">
+        <v>0.745375</v>
+      </c>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79" t="n">
+        <v>0.643125</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80" t="n">
+        <v>0.83525</v>
+      </c>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80" t="n">
+        <v>0.821875</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81" t="n">
+        <v>1.24925</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82" t="n">
+        <v>1.24825</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" t="n">
+        <v>0.92775</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83" t="n">
+        <v>1.015125</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83" t="n">
+        <v>1.044375</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.17925</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85" t="n">
+        <v>1.163125</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85" t="n">
+        <v>1.165125</v>
+      </c>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86" t="n">
+        <v>1.249125</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86" t="n">
+        <v>1.24775</v>
+      </c>
+      <c r="P86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.231625</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="n">
+        <v>1.240375</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" t="n">
+        <v>1.248375</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.2245</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.248375</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87" t="n">
+        <v>1.24575</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87" t="n">
+        <v>1.247125</v>
+      </c>
+      <c r="P87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.046</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89" t="n">
+        <v>1.16125</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.208625</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.236375</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.231875</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.213625</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.2435</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.247375</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.248625</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.248875</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.249625</v>
+      </c>
+      <c r="O89"/>
+      <c r="P89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91" t="n">
+        <v>1.24925</v>
+      </c>
+      <c r="I91"/>
+      <c r="J91" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="O91"/>
+      <c r="P91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92" t="n">
+        <v>1.23825</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92" t="n">
+        <v>1.243125</v>
+      </c>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93" t="n">
+        <v>0.8075</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95" t="n">
+        <v>1.131875</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95" t="n">
+        <v>1.17825</v>
+      </c>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96" t="n">
+        <v>1.020125</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96" t="n">
+        <v>1.184875</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" t="n">
+        <v>1.204375</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97" t="n">
+        <v>1.245625</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97" t="n">
+        <v>1.213375</v>
+      </c>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98" t="n">
+        <v>0.993875</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98" t="n">
+        <v>1.103125</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98" t="n">
+        <v>1.11975</v>
+      </c>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99" t="n">
+        <v>0.913875</v>
+      </c>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99" t="n">
+        <v>0.90675</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100" t="n">
+        <v>1.195625</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.19925</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100" t="n">
+        <v>1.217125</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100" t="n">
+        <v>1.22575</v>
+      </c>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102" t="n">
+        <v>1.24825</v>
+      </c>
+      <c r="K102"/>
+      <c r="L102" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.136625</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" t="n">
+        <v>1.19375</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.195875</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.2185</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.233625</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.23575</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.23575</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="P103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105" t="n">
+        <v>1.20975</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.189625</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.215375</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.222375</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.214625</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.21875</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.232625</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.226125</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.22725</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.22875</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="P105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.1925</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.189125</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.198375</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.215375</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.226375</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.22725</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.226875</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.233125</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1.2375</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.240875</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.240375</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.24025</v>
+      </c>
+      <c r="P106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.17075</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107" t="n">
+        <v>1.1765</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107" t="n">
+        <v>1.181625</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107" t="n">
+        <v>1.20475</v>
+      </c>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107" t="n">
+        <v>1.19975</v>
+      </c>
+      <c r="P107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109" t="n">
+        <v>1.244375</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.24325</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.24625</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110" t="n">
+        <v>1.247625</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.248625</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.249125</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.24775</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110" t="n">
+        <v>1.249875</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.72775</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111" t="n">
+        <v>0.816125</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111" t="n">
+        <v>0.918375</v>
+      </c>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116" t="n">
+        <v>1.151625</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116" t="n">
+        <v>1.07575</v>
+      </c>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117" t="n">
+        <v>1.071125</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117" t="n">
+        <v>1.1115</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118" t="n">
+        <v>1.24775</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.248875</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.2485</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.247875</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119" t="n">
+        <v>1.249125</v>
+      </c>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120" t="n">
+        <v>0.966125</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120" t="n">
+        <v>1.0095</v>
+      </c>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121" t="n">
+        <v>1.24825</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.247625</v>
+      </c>
+      <c r="O121"/>
+      <c r="P121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122" t="n">
+        <v>1.249375</v>
+      </c>
+      <c r="F122"/>
+      <c r="G122" t="n">
+        <v>1.24925</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.224625</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122" t="n">
+        <v>1.249625</v>
+      </c>
+      <c r="L122"/>
+      <c r="M122" t="n">
+        <v>1.24925</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.14775</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125" t="n">
+        <v>1.21175</v>
+      </c>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125" t="n">
+        <v>1.221625</v>
+      </c>
+      <c r="M125"/>
+      <c r="N125" t="n">
+        <v>1.235125</v>
+      </c>
+      <c r="O125"/>
+      <c r="P125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127" t="n">
+        <v>1.217</v>
+      </c>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127" t="n">
+        <v>1.23775</v>
+      </c>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127" t="n">
+        <v>1.241875</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128" t="n">
+        <v>1.18175</v>
+      </c>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130" t="n">
+        <v>1.06425</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130" t="n">
+        <v>1.05975</v>
+      </c>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131" t="n">
+        <v>1.2475</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132" t="n">
+        <v>1.125375</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.191375</v>
+      </c>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132" t="n">
+        <v>1.1955</v>
+      </c>
+      <c r="K132"/>
+      <c r="L132" t="n">
+        <v>1.234125</v>
+      </c>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.734625</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133" t="n">
+        <v>0.89875</v>
+      </c>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133" t="n">
+        <v>1.08775</v>
+      </c>
+      <c r="P133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.24375</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>1.246375</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134" t="n">
+        <v>1.24775</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="L134"/>
+      <c r="M134" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135" t="n">
+        <v>1.14825</v>
+      </c>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136" t="n">
+        <v>0.995875</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="O136"/>
+      <c r="P136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.24425</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139" t="n">
+        <v>1.245875</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139" t="n">
+        <v>1.2475</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140" t="n">
+        <v>1.248625</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.2435</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.247625</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.247625</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="K140"/>
+      <c r="L140" t="n">
+        <v>1.24975</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.249375</v>
+      </c>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>0.972875</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143" t="n">
+        <v>1.00975</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143" t="n">
+        <v>1.097875</v>
+      </c>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143" t="n">
+        <v>1.1005</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>1.249125</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144" t="n">
+        <v>1.249125</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.249625</v>
+      </c>
+      <c r="K144"/>
+      <c r="L144" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.248125</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.248125</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.246875</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.246625</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.24675</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.24775</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.248875</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1.249375</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1.249125</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.249125</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.248875</v>
+      </c>
+      <c r="P145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148" t="n">
+        <v>1.194875</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.153625</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.147375</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.1505</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.20325</v>
+      </c>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149" t="n">
+        <v>1.109875</v>
+      </c>
+      <c r="F149"/>
+      <c r="G149" t="n">
+        <v>1.1445</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149" t="n">
+        <v>1.18375</v>
+      </c>
+      <c r="J149"/>
+      <c r="K149" t="n">
+        <v>1.20325</v>
+      </c>
+      <c r="L149"/>
+      <c r="M149" t="n">
+        <v>1.2395</v>
+      </c>
+      <c r="N149"/>
+      <c r="O149" t="n">
+        <v>1.243125</v>
+      </c>
+      <c r="P149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150" t="n">
+        <v>1.226625</v>
+      </c>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151" t="n">
+        <v>0.910875</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.8405</v>
+      </c>
+      <c r="H151"/>
+      <c r="I151" t="n">
+        <v>0.78725</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151" t="n">
+        <v>0.72775</v>
+      </c>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/user-data/avg-income-of-extreme-poor/avg-income-of-extreme-poor.xlsx
+++ b/user-data/avg-income-of-extreme-poor/avg-income-of-extreme-poor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>id</t>
   </si>
@@ -1010,7 +1010,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1443,6 +1446,11 @@
         <v>333</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/avg-income-of-extreme-poor/avg-income-of-extreme-poor.xlsx
+++ b/user-data/avg-income-of-extreme-poor/avg-income-of-extreme-poor.xlsx
@@ -59,7 +59,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -119,7 +119,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -222,6 +216,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -707,7 +707,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -719,7 +719,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -851,7 +851,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1019,7 +1019,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -5622,12 +5622,8 @@
       <c r="C284" t="n">
         <v>2002</v>
       </c>
-      <c r="D284" t="n">
-        <v>1.136125</v>
-      </c>
-      <c r="E284" t="n">
-        <v>1.136125</v>
-      </c>
+      <c r="D284"/>
+      <c r="E284"/>
     </row>
     <row r="285">
       <c r="A285" t="s">
@@ -5639,9 +5635,7 @@
       <c r="C285" t="n">
         <v>2003</v>
       </c>
-      <c r="D285" t="n">
-        <v>1.1286875</v>
-      </c>
+      <c r="D285"/>
       <c r="E285"/>
     </row>
     <row r="286">
@@ -5655,9 +5649,11 @@
         <v>2004</v>
       </c>
       <c r="D286" t="n">
-        <v>1.12125</v>
-      </c>
-      <c r="E286"/>
+        <v>1.152625</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1.152625</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -5670,7 +5666,7 @@
         <v>2005</v>
       </c>
       <c r="D287" t="n">
-        <v>1.1138125</v>
+        <v>1.1549166667</v>
       </c>
       <c r="E287"/>
     </row>
@@ -5685,7 +5681,7 @@
         <v>2006</v>
       </c>
       <c r="D288" t="n">
-        <v>1.106375</v>
+        <v>1.1572083333</v>
       </c>
       <c r="E288"/>
     </row>
@@ -5700,9 +5696,11 @@
         <v>2007</v>
       </c>
       <c r="D289" t="n">
-        <v>1.0989375</v>
-      </c>
-      <c r="E289"/>
+        <v>1.1595</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.1595</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
@@ -5715,10 +5713,10 @@
         <v>2008</v>
       </c>
       <c r="D290" t="n">
-        <v>1.0915</v>
+        <v>1.195125</v>
       </c>
       <c r="E290" t="n">
-        <v>1.0915</v>
+        <v>1.195125</v>
       </c>
     </row>
     <row r="291">
@@ -5731,8 +5729,12 @@
       <c r="C291" t="n">
         <v>2009</v>
       </c>
-      <c r="D291"/>
-      <c r="E291"/>
+      <c r="D291" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.224</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -5744,8 +5746,12 @@
       <c r="C292" t="n">
         <v>2010</v>
       </c>
-      <c r="D292"/>
-      <c r="E292"/>
+      <c r="D292" t="n">
+        <v>1.22875</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.22875</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -5757,8 +5763,12 @@
       <c r="C293" t="n">
         <v>2011</v>
       </c>
-      <c r="D293"/>
-      <c r="E293"/>
+      <c r="D293" t="n">
+        <v>1.232125</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1.232125</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -5809,8 +5819,12 @@
       <c r="C297" t="n">
         <v>2001</v>
       </c>
-      <c r="D297"/>
-      <c r="E297"/>
+      <c r="D297" t="n">
+        <v>1.166375</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1.166375</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
@@ -5822,7 +5836,9 @@
       <c r="C298" t="n">
         <v>2002</v>
       </c>
-      <c r="D298"/>
+      <c r="D298" t="n">
+        <v>1.1652291667</v>
+      </c>
       <c r="E298"/>
     </row>
     <row r="299">
@@ -5835,7 +5851,9 @@
       <c r="C299" t="n">
         <v>2003</v>
       </c>
-      <c r="D299"/>
+      <c r="D299" t="n">
+        <v>1.1640833333</v>
+      </c>
       <c r="E299"/>
     </row>
     <row r="300">
@@ -5849,11 +5867,9 @@
         <v>2004</v>
       </c>
       <c r="D300" t="n">
-        <v>1.152625</v>
-      </c>
-      <c r="E300" t="n">
-        <v>1.152625</v>
-      </c>
+        <v>1.1629375</v>
+      </c>
+      <c r="E300"/>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -5866,7 +5882,7 @@
         <v>2005</v>
       </c>
       <c r="D301" t="n">
-        <v>1.1549166667</v>
+        <v>1.1617916667</v>
       </c>
       <c r="E301"/>
     </row>
@@ -5881,7 +5897,7 @@
         <v>2006</v>
       </c>
       <c r="D302" t="n">
-        <v>1.1572083333</v>
+        <v>1.1606458333</v>
       </c>
       <c r="E302"/>
     </row>
@@ -5912,12 +5928,8 @@
       <c r="C304" t="n">
         <v>2008</v>
       </c>
-      <c r="D304" t="n">
-        <v>1.195125</v>
-      </c>
-      <c r="E304" t="n">
-        <v>1.195125</v>
-      </c>
+      <c r="D304"/>
+      <c r="E304"/>
     </row>
     <row r="305">
       <c r="A305" t="s">
@@ -5929,12 +5941,8 @@
       <c r="C305" t="n">
         <v>2009</v>
       </c>
-      <c r="D305" t="n">
-        <v>1.224</v>
-      </c>
-      <c r="E305" t="n">
-        <v>1.224</v>
-      </c>
+      <c r="D305"/>
+      <c r="E305"/>
     </row>
     <row r="306">
       <c r="A306" t="s">
@@ -5946,12 +5954,8 @@
       <c r="C306" t="n">
         <v>2010</v>
       </c>
-      <c r="D306" t="n">
-        <v>1.22875</v>
-      </c>
-      <c r="E306" t="n">
-        <v>1.22875</v>
-      </c>
+      <c r="D306"/>
+      <c r="E306"/>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -5963,12 +5967,8 @@
       <c r="C307" t="n">
         <v>2011</v>
       </c>
-      <c r="D307" t="n">
-        <v>1.232125</v>
-      </c>
-      <c r="E307" t="n">
-        <v>1.232125</v>
-      </c>
+      <c r="D307"/>
+      <c r="E307"/>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -6019,12 +6019,8 @@
       <c r="C311" t="n">
         <v>2001</v>
       </c>
-      <c r="D311" t="n">
-        <v>1.166375</v>
-      </c>
-      <c r="E311" t="n">
-        <v>1.166375</v>
-      </c>
+      <c r="D311"/>
+      <c r="E311"/>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -6037,9 +6033,11 @@
         <v>2002</v>
       </c>
       <c r="D312" t="n">
-        <v>1.1652291667</v>
-      </c>
-      <c r="E312"/>
+        <v>1.174375</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1.174375</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -6052,7 +6050,7 @@
         <v>2003</v>
       </c>
       <c r="D313" t="n">
-        <v>1.1640833333</v>
+        <v>1.1803541667</v>
       </c>
       <c r="E313"/>
     </row>
@@ -6067,7 +6065,7 @@
         <v>2004</v>
       </c>
       <c r="D314" t="n">
-        <v>1.1629375</v>
+        <v>1.1863333333</v>
       </c>
       <c r="E314"/>
     </row>
@@ -6082,7 +6080,7 @@
         <v>2005</v>
       </c>
       <c r="D315" t="n">
-        <v>1.1617916667</v>
+        <v>1.1923125</v>
       </c>
       <c r="E315"/>
     </row>
@@ -6097,7 +6095,7 @@
         <v>2006</v>
       </c>
       <c r="D316" t="n">
-        <v>1.1606458333</v>
+        <v>1.1982916667</v>
       </c>
       <c r="E316"/>
     </row>
@@ -6112,11 +6110,9 @@
         <v>2007</v>
       </c>
       <c r="D317" t="n">
-        <v>1.1595</v>
-      </c>
-      <c r="E317" t="n">
-        <v>1.1595</v>
-      </c>
+        <v>1.2042708333</v>
+      </c>
+      <c r="E317"/>
     </row>
     <row r="318">
       <c r="A318" t="s">
@@ -6128,8 +6124,12 @@
       <c r="C318" t="n">
         <v>2008</v>
       </c>
-      <c r="D318"/>
-      <c r="E318"/>
+      <c r="D318" t="n">
+        <v>1.21025</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1.21025</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -6232,12 +6232,8 @@
       <c r="C326" t="n">
         <v>2002</v>
       </c>
-      <c r="D326" t="n">
-        <v>1.174375</v>
-      </c>
-      <c r="E326" t="n">
-        <v>1.174375</v>
-      </c>
+      <c r="D326"/>
+      <c r="E326"/>
     </row>
     <row r="327">
       <c r="A327" t="s">
@@ -6250,9 +6246,11 @@
         <v>2003</v>
       </c>
       <c r="D327" t="n">
-        <v>1.1803541667</v>
-      </c>
-      <c r="E327"/>
+        <v>0.89625</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.89625</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -6265,7 +6263,7 @@
         <v>2004</v>
       </c>
       <c r="D328" t="n">
-        <v>1.1863333333</v>
+        <v>0.88885</v>
       </c>
       <c r="E328"/>
     </row>
@@ -6280,7 +6278,7 @@
         <v>2005</v>
       </c>
       <c r="D329" t="n">
-        <v>1.1923125</v>
+        <v>0.88145</v>
       </c>
       <c r="E329"/>
     </row>
@@ -6295,7 +6293,7 @@
         <v>2006</v>
       </c>
       <c r="D330" t="n">
-        <v>1.1982916667</v>
+        <v>0.87405</v>
       </c>
       <c r="E330"/>
     </row>
@@ -6310,7 +6308,7 @@
         <v>2007</v>
       </c>
       <c r="D331" t="n">
-        <v>1.2042708333</v>
+        <v>0.86665</v>
       </c>
       <c r="E331"/>
     </row>
@@ -6325,10 +6323,10 @@
         <v>2008</v>
       </c>
       <c r="D332" t="n">
-        <v>1.21025</v>
+        <v>0.85925</v>
       </c>
       <c r="E332" t="n">
-        <v>1.21025</v>
+        <v>0.85925</v>
       </c>
     </row>
     <row r="333">
@@ -6446,10 +6444,10 @@
         <v>2003</v>
       </c>
       <c r="D341" t="n">
-        <v>0.89625</v>
+        <v>0.9295</v>
       </c>
       <c r="E341" t="n">
-        <v>0.89625</v>
+        <v>0.9295</v>
       </c>
     </row>
     <row r="342">
@@ -6463,7 +6461,7 @@
         <v>2004</v>
       </c>
       <c r="D342" t="n">
-        <v>0.88885</v>
+        <v>0.94740625</v>
       </c>
       <c r="E342"/>
     </row>
@@ -6478,7 +6476,7 @@
         <v>2005</v>
       </c>
       <c r="D343" t="n">
-        <v>0.88145</v>
+        <v>0.9653125</v>
       </c>
       <c r="E343"/>
     </row>
@@ -6493,7 +6491,7 @@
         <v>2006</v>
       </c>
       <c r="D344" t="n">
-        <v>0.87405</v>
+        <v>0.98321875</v>
       </c>
       <c r="E344"/>
     </row>
@@ -6508,7 +6506,7 @@
         <v>2007</v>
       </c>
       <c r="D345" t="n">
-        <v>0.86665</v>
+        <v>1.001125</v>
       </c>
       <c r="E345"/>
     </row>
@@ -6523,11 +6521,9 @@
         <v>2008</v>
       </c>
       <c r="D346" t="n">
-        <v>0.85925</v>
-      </c>
-      <c r="E346" t="n">
-        <v>0.85925</v>
-      </c>
+        <v>1.01903125</v>
+      </c>
+      <c r="E346"/>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -6539,7 +6535,9 @@
       <c r="C347" t="n">
         <v>2009</v>
       </c>
-      <c r="D347"/>
+      <c r="D347" t="n">
+        <v>1.0369375</v>
+      </c>
       <c r="E347"/>
     </row>
     <row r="348">
@@ -6552,7 +6550,9 @@
       <c r="C348" t="n">
         <v>2010</v>
       </c>
-      <c r="D348"/>
+      <c r="D348" t="n">
+        <v>1.05484375</v>
+      </c>
       <c r="E348"/>
     </row>
     <row r="349">
@@ -6565,8 +6565,12 @@
       <c r="C349" t="n">
         <v>2011</v>
       </c>
-      <c r="D349"/>
-      <c r="E349"/>
+      <c r="D349" t="n">
+        <v>1.07275</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1.07275</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
@@ -6604,8 +6608,12 @@
       <c r="C352" t="n">
         <v>2000</v>
       </c>
-      <c r="D352"/>
-      <c r="E352"/>
+      <c r="D352" t="n">
+        <v>1.239375</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1.239375</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
@@ -6617,7 +6625,9 @@
       <c r="C353" t="n">
         <v>2001</v>
       </c>
-      <c r="D353"/>
+      <c r="D353" t="n">
+        <v>1.2397916667</v>
+      </c>
       <c r="E353"/>
     </row>
     <row r="354">
@@ -6630,7 +6640,9 @@
       <c r="C354" t="n">
         <v>2002</v>
       </c>
-      <c r="D354"/>
+      <c r="D354" t="n">
+        <v>1.2402083333</v>
+      </c>
       <c r="E354"/>
     </row>
     <row r="355">
@@ -6644,10 +6656,10 @@
         <v>2003</v>
       </c>
       <c r="D355" t="n">
-        <v>0.9295</v>
+        <v>1.240625</v>
       </c>
       <c r="E355" t="n">
-        <v>0.9295</v>
+        <v>1.240625</v>
       </c>
     </row>
     <row r="356">
@@ -6661,7 +6673,7 @@
         <v>2004</v>
       </c>
       <c r="D356" t="n">
-        <v>0.94740625</v>
+        <v>1.2418333333</v>
       </c>
       <c r="E356"/>
     </row>
@@ -6676,7 +6688,7 @@
         <v>2005</v>
       </c>
       <c r="D357" t="n">
-        <v>0.9653125</v>
+        <v>1.2430416667</v>
       </c>
       <c r="E357"/>
     </row>
@@ -6691,9 +6703,11 @@
         <v>2006</v>
       </c>
       <c r="D358" t="n">
-        <v>0.98321875</v>
-      </c>
-      <c r="E358"/>
+        <v>1.24425</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1.24425</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -6706,7 +6720,7 @@
         <v>2007</v>
       </c>
       <c r="D359" t="n">
-        <v>1.001125</v>
+        <v>1.2434166667</v>
       </c>
       <c r="E359"/>
     </row>
@@ -6721,7 +6735,7 @@
         <v>2008</v>
       </c>
       <c r="D360" t="n">
-        <v>1.01903125</v>
+        <v>1.2425833333</v>
       </c>
       <c r="E360"/>
     </row>
@@ -6736,9 +6750,11 @@
         <v>2009</v>
       </c>
       <c r="D361" t="n">
-        <v>1.0369375</v>
-      </c>
-      <c r="E361"/>
+        <v>1.24175</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1.24175</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
@@ -6751,7 +6767,7 @@
         <v>2010</v>
       </c>
       <c r="D362" t="n">
-        <v>1.05484375</v>
+        <v>1.2435</v>
       </c>
       <c r="E362"/>
     </row>
@@ -6766,10 +6782,10 @@
         <v>2011</v>
       </c>
       <c r="D363" t="n">
-        <v>1.07275</v>
+        <v>1.24525</v>
       </c>
       <c r="E363" t="n">
-        <v>1.07275</v>
+        <v>1.24525</v>
       </c>
     </row>
     <row r="364">
@@ -6808,12 +6824,8 @@
       <c r="C366" t="n">
         <v>2000</v>
       </c>
-      <c r="D366" t="n">
-        <v>1.239375</v>
-      </c>
-      <c r="E366" t="n">
-        <v>1.239375</v>
-      </c>
+      <c r="D366"/>
+      <c r="E366"/>
     </row>
     <row r="367">
       <c r="A367" t="s">
@@ -6825,9 +6837,7 @@
       <c r="C367" t="n">
         <v>2001</v>
       </c>
-      <c r="D367" t="n">
-        <v>1.2397916667</v>
-      </c>
+      <c r="D367"/>
       <c r="E367"/>
     </row>
     <row r="368">
@@ -6841,9 +6851,11 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>1.2402083333</v>
-      </c>
-      <c r="E368"/>
+        <v>1.142875</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1.142875</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
@@ -6856,11 +6868,9 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>1.240625</v>
-      </c>
-      <c r="E369" t="n">
-        <v>1.240625</v>
-      </c>
+        <v>1.1622916667</v>
+      </c>
+      <c r="E369"/>
     </row>
     <row r="370">
       <c r="A370" t="s">
@@ -6873,7 +6883,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>1.2418333333</v>
+        <v>1.1817083333</v>
       </c>
       <c r="E370"/>
     </row>
@@ -6888,9 +6898,11 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>1.2430416667</v>
-      </c>
-      <c r="E371"/>
+        <v>1.201125</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1.201125</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
@@ -6903,11 +6915,9 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>1.24425</v>
-      </c>
-      <c r="E372" t="n">
-        <v>1.24425</v>
-      </c>
+        <v>1.204625</v>
+      </c>
+      <c r="E372"/>
     </row>
     <row r="373">
       <c r="A373" t="s">
@@ -6920,7 +6930,7 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>1.2434166667</v>
+        <v>1.208125</v>
       </c>
       <c r="E373"/>
     </row>
@@ -6935,9 +6945,11 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>1.2425833333</v>
-      </c>
-      <c r="E374"/>
+        <v>1.211625</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1.211625</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
@@ -6950,11 +6962,9 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>1.24175</v>
-      </c>
-      <c r="E375" t="n">
-        <v>1.24175</v>
-      </c>
+        <v>1.218125</v>
+      </c>
+      <c r="E375"/>
     </row>
     <row r="376">
       <c r="A376" t="s">
@@ -6967,9 +6977,11 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>1.2435</v>
-      </c>
-      <c r="E376"/>
+        <v>1.224625</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1.224625</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
@@ -6982,10 +6994,10 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>1.24525</v>
+        <v>1.2335</v>
       </c>
       <c r="E377" t="n">
-        <v>1.24525</v>
+        <v>1.2335</v>
       </c>
     </row>
     <row r="378">
@@ -7024,8 +7036,12 @@
       <c r="C380" t="n">
         <v>2000</v>
       </c>
-      <c r="D380"/>
-      <c r="E380"/>
+      <c r="D380" t="n">
+        <v>1.10675</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1.10675</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
@@ -7037,8 +7053,12 @@
       <c r="C381" t="n">
         <v>2001</v>
       </c>
-      <c r="D381"/>
-      <c r="E381"/>
+      <c r="D381" t="n">
+        <v>1.13575</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1.13575</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
@@ -7051,10 +7071,10 @@
         <v>2002</v>
       </c>
       <c r="D382" t="n">
-        <v>1.142875</v>
+        <v>1.196875</v>
       </c>
       <c r="E382" t="n">
-        <v>1.142875</v>
+        <v>1.196875</v>
       </c>
     </row>
     <row r="383">
@@ -7068,9 +7088,11 @@
         <v>2003</v>
       </c>
       <c r="D383" t="n">
-        <v>1.1622916667</v>
-      </c>
-      <c r="E383"/>
+        <v>1.2005</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1.2005</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
@@ -7083,9 +7105,11 @@
         <v>2004</v>
       </c>
       <c r="D384" t="n">
-        <v>1.1817083333</v>
-      </c>
-      <c r="E384"/>
+        <v>1.210125</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1.210125</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
@@ -7098,10 +7122,10 @@
         <v>2005</v>
       </c>
       <c r="D385" t="n">
-        <v>1.201125</v>
+        <v>1.214125</v>
       </c>
       <c r="E385" t="n">
-        <v>1.201125</v>
+        <v>1.214125</v>
       </c>
     </row>
     <row r="386">
@@ -7115,9 +7139,11 @@
         <v>2006</v>
       </c>
       <c r="D386" t="n">
-        <v>1.204625</v>
-      </c>
-      <c r="E386"/>
+        <v>1.182375</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1.182375</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -7130,9 +7156,11 @@
         <v>2007</v>
       </c>
       <c r="D387" t="n">
-        <v>1.208125</v>
-      </c>
-      <c r="E387"/>
+        <v>1.199625</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1.199625</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -7145,10 +7173,10 @@
         <v>2008</v>
       </c>
       <c r="D388" t="n">
-        <v>1.211625</v>
+        <v>1.2045</v>
       </c>
       <c r="E388" t="n">
-        <v>1.211625</v>
+        <v>1.2045</v>
       </c>
     </row>
     <row r="389">
@@ -7162,9 +7190,11 @@
         <v>2009</v>
       </c>
       <c r="D389" t="n">
-        <v>1.218125</v>
-      </c>
-      <c r="E389"/>
+        <v>1.211625</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1.211625</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
@@ -7177,10 +7207,10 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>1.224625</v>
+        <v>1.221</v>
       </c>
       <c r="E390" t="n">
-        <v>1.224625</v>
+        <v>1.221</v>
       </c>
     </row>
     <row r="391">
@@ -7194,10 +7224,10 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>1.2335</v>
+        <v>1.22475</v>
       </c>
       <c r="E391" t="n">
-        <v>1.2335</v>
+        <v>1.22475</v>
       </c>
     </row>
     <row r="392">
@@ -7210,8 +7240,12 @@
       <c r="C392" t="n">
         <v>2012</v>
       </c>
-      <c r="D392"/>
-      <c r="E392"/>
+      <c r="D392" t="n">
+        <v>1.220875</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1.220875</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
@@ -7236,12 +7270,8 @@
       <c r="C394" t="n">
         <v>2000</v>
       </c>
-      <c r="D394" t="n">
-        <v>1.10675</v>
-      </c>
-      <c r="E394" t="n">
-        <v>1.10675</v>
-      </c>
+      <c r="D394"/>
+      <c r="E394"/>
     </row>
     <row r="395">
       <c r="A395" t="s">
@@ -7253,12 +7283,8 @@
       <c r="C395" t="n">
         <v>2001</v>
       </c>
-      <c r="D395" t="n">
-        <v>1.13575</v>
-      </c>
-      <c r="E395" t="n">
-        <v>1.13575</v>
-      </c>
+      <c r="D395"/>
+      <c r="E395"/>
     </row>
     <row r="396">
       <c r="A396" t="s">
@@ -7270,12 +7296,8 @@
       <c r="C396" t="n">
         <v>2002</v>
       </c>
-      <c r="D396" t="n">
-        <v>1.196875</v>
-      </c>
-      <c r="E396" t="n">
-        <v>1.196875</v>
-      </c>
+      <c r="D396"/>
+      <c r="E396"/>
     </row>
     <row r="397">
       <c r="A397" t="s">
@@ -7287,12 +7309,8 @@
       <c r="C397" t="n">
         <v>2003</v>
       </c>
-      <c r="D397" t="n">
-        <v>1.2005</v>
-      </c>
-      <c r="E397" t="n">
-        <v>1.2005</v>
-      </c>
+      <c r="D397"/>
+      <c r="E397"/>
     </row>
     <row r="398">
       <c r="A398" t="s">
@@ -7305,10 +7323,10 @@
         <v>2004</v>
       </c>
       <c r="D398" t="n">
-        <v>1.210125</v>
+        <v>0.98975</v>
       </c>
       <c r="E398" t="n">
-        <v>1.210125</v>
+        <v>0.98975</v>
       </c>
     </row>
     <row r="399">
@@ -7321,12 +7339,8 @@
       <c r="C399" t="n">
         <v>2005</v>
       </c>
-      <c r="D399" t="n">
-        <v>1.214125</v>
-      </c>
-      <c r="E399" t="n">
-        <v>1.214125</v>
-      </c>
+      <c r="D399"/>
+      <c r="E399"/>
     </row>
     <row r="400">
       <c r="A400" t="s">
@@ -7338,12 +7352,8 @@
       <c r="C400" t="n">
         <v>2006</v>
       </c>
-      <c r="D400" t="n">
-        <v>1.182375</v>
-      </c>
-      <c r="E400" t="n">
-        <v>1.182375</v>
-      </c>
+      <c r="D400"/>
+      <c r="E400"/>
     </row>
     <row r="401">
       <c r="A401" t="s">
@@ -7355,12 +7365,8 @@
       <c r="C401" t="n">
         <v>2007</v>
       </c>
-      <c r="D401" t="n">
-        <v>1.199625</v>
-      </c>
-      <c r="E401" t="n">
-        <v>1.199625</v>
-      </c>
+      <c r="D401"/>
+      <c r="E401"/>
     </row>
     <row r="402">
       <c r="A402" t="s">
@@ -7372,12 +7378,8 @@
       <c r="C402" t="n">
         <v>2008</v>
       </c>
-      <c r="D402" t="n">
-        <v>1.2045</v>
-      </c>
-      <c r="E402" t="n">
-        <v>1.2045</v>
-      </c>
+      <c r="D402"/>
+      <c r="E402"/>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -7389,12 +7391,8 @@
       <c r="C403" t="n">
         <v>2009</v>
       </c>
-      <c r="D403" t="n">
-        <v>1.211625</v>
-      </c>
-      <c r="E403" t="n">
-        <v>1.211625</v>
-      </c>
+      <c r="D403"/>
+      <c r="E403"/>
     </row>
     <row r="404">
       <c r="A404" t="s">
@@ -7406,12 +7404,8 @@
       <c r="C404" t="n">
         <v>2010</v>
       </c>
-      <c r="D404" t="n">
-        <v>1.221</v>
-      </c>
-      <c r="E404" t="n">
-        <v>1.221</v>
-      </c>
+      <c r="D404"/>
+      <c r="E404"/>
     </row>
     <row r="405">
       <c r="A405" t="s">
@@ -7423,12 +7417,8 @@
       <c r="C405" t="n">
         <v>2011</v>
       </c>
-      <c r="D405" t="n">
-        <v>1.22475</v>
-      </c>
-      <c r="E405" t="n">
-        <v>1.22475</v>
-      </c>
+      <c r="D405"/>
+      <c r="E405"/>
     </row>
     <row r="406">
       <c r="A406" t="s">
@@ -7440,12 +7430,8 @@
       <c r="C406" t="n">
         <v>2012</v>
       </c>
-      <c r="D406" t="n">
-        <v>1.220875</v>
-      </c>
-      <c r="E406" t="n">
-        <v>1.220875</v>
-      </c>
+      <c r="D406"/>
+      <c r="E406"/>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -7522,12 +7508,8 @@
       <c r="C412" t="n">
         <v>2004</v>
       </c>
-      <c r="D412" t="n">
-        <v>0.98975</v>
-      </c>
-      <c r="E412" t="n">
-        <v>0.98975</v>
-      </c>
+      <c r="D412"/>
+      <c r="E412"/>
     </row>
     <row r="413">
       <c r="A413" t="s">
@@ -7539,8 +7521,12 @@
       <c r="C413" t="n">
         <v>2005</v>
       </c>
-      <c r="D413"/>
-      <c r="E413"/>
+      <c r="D413" t="n">
+        <v>0.96475</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.96475</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
@@ -7552,7 +7538,9 @@
       <c r="C414" t="n">
         <v>2006</v>
       </c>
-      <c r="D414"/>
+      <c r="D414" t="n">
+        <v>0.9883958333</v>
+      </c>
       <c r="E414"/>
     </row>
     <row r="415">
@@ -7565,7 +7553,9 @@
       <c r="C415" t="n">
         <v>2007</v>
       </c>
-      <c r="D415"/>
+      <c r="D415" t="n">
+        <v>1.0120416667</v>
+      </c>
       <c r="E415"/>
     </row>
     <row r="416">
@@ -7578,7 +7568,9 @@
       <c r="C416" t="n">
         <v>2008</v>
       </c>
-      <c r="D416"/>
+      <c r="D416" t="n">
+        <v>1.0356875</v>
+      </c>
       <c r="E416"/>
     </row>
     <row r="417">
@@ -7591,7 +7583,9 @@
       <c r="C417" t="n">
         <v>2009</v>
       </c>
-      <c r="D417"/>
+      <c r="D417" t="n">
+        <v>1.0593333333</v>
+      </c>
       <c r="E417"/>
     </row>
     <row r="418">
@@ -7604,7 +7598,9 @@
       <c r="C418" t="n">
         <v>2010</v>
       </c>
-      <c r="D418"/>
+      <c r="D418" t="n">
+        <v>1.0829791667</v>
+      </c>
       <c r="E418"/>
     </row>
     <row r="419">
@@ -7617,8 +7613,12 @@
       <c r="C419" t="n">
         <v>2011</v>
       </c>
-      <c r="D419"/>
-      <c r="E419"/>
+      <c r="D419" t="n">
+        <v>1.106625</v>
+      </c>
+      <c r="E419" t="n">
+        <v>1.106625</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
@@ -7656,8 +7656,12 @@
       <c r="C422" t="n">
         <v>2000</v>
       </c>
-      <c r="D422"/>
-      <c r="E422"/>
+      <c r="D422" t="n">
+        <v>1.214625</v>
+      </c>
+      <c r="E422" t="n">
+        <v>1.214625</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
@@ -7669,8 +7673,12 @@
       <c r="C423" t="n">
         <v>2001</v>
       </c>
-      <c r="D423"/>
-      <c r="E423"/>
+      <c r="D423" t="n">
+        <v>1.20925</v>
+      </c>
+      <c r="E423" t="n">
+        <v>1.20925</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
@@ -7682,8 +7690,12 @@
       <c r="C424" t="n">
         <v>2002</v>
       </c>
-      <c r="D424"/>
-      <c r="E424"/>
+      <c r="D424" t="n">
+        <v>1.211125</v>
+      </c>
+      <c r="E424" t="n">
+        <v>1.211125</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
@@ -7695,8 +7707,12 @@
       <c r="C425" t="n">
         <v>2003</v>
       </c>
-      <c r="D425"/>
-      <c r="E425"/>
+      <c r="D425" t="n">
+        <v>1.21375</v>
+      </c>
+      <c r="E425" t="n">
+        <v>1.21375</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
@@ -7708,8 +7724,12 @@
       <c r="C426" t="n">
         <v>2004</v>
       </c>
-      <c r="D426"/>
-      <c r="E426"/>
+      <c r="D426" t="n">
+        <v>1.21725</v>
+      </c>
+      <c r="E426" t="n">
+        <v>1.21725</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
@@ -7722,10 +7742,10 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>0.96475</v>
+        <v>1.228</v>
       </c>
       <c r="E427" t="n">
-        <v>0.96475</v>
+        <v>1.228</v>
       </c>
     </row>
     <row r="428">
@@ -7739,9 +7759,11 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>0.9883958333</v>
-      </c>
-      <c r="E428"/>
+        <v>1.227</v>
+      </c>
+      <c r="E428" t="n">
+        <v>1.227</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
@@ -7754,9 +7776,11 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v>1.0120416667</v>
-      </c>
-      <c r="E429"/>
+        <v>1.2365</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1.2365</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
@@ -7769,9 +7793,11 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v>1.0356875</v>
-      </c>
-      <c r="E430"/>
+        <v>1.23225</v>
+      </c>
+      <c r="E430" t="n">
+        <v>1.23225</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
@@ -7784,9 +7810,11 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>1.0593333333</v>
-      </c>
-      <c r="E431"/>
+        <v>1.228375</v>
+      </c>
+      <c r="E431" t="n">
+        <v>1.228375</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
@@ -7799,9 +7827,11 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>1.0829791667</v>
-      </c>
-      <c r="E432"/>
+        <v>1.242</v>
+      </c>
+      <c r="E432" t="n">
+        <v>1.242</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
@@ -7814,10 +7844,10 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>1.106625</v>
+        <v>1.243</v>
       </c>
       <c r="E433" t="n">
-        <v>1.106625</v>
+        <v>1.243</v>
       </c>
     </row>
     <row r="434">
@@ -7830,8 +7860,12 @@
       <c r="C434" t="n">
         <v>2012</v>
       </c>
-      <c r="D434"/>
-      <c r="E434"/>
+      <c r="D434" t="n">
+        <v>1.24275</v>
+      </c>
+      <c r="E434" t="n">
+        <v>1.24275</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -7856,12 +7890,8 @@
       <c r="C436" t="n">
         <v>2000</v>
       </c>
-      <c r="D436" t="n">
-        <v>1.214625</v>
-      </c>
-      <c r="E436" t="n">
-        <v>1.214625</v>
-      </c>
+      <c r="D436"/>
+      <c r="E436"/>
     </row>
     <row r="437">
       <c r="A437" t="s">
@@ -7873,12 +7903,8 @@
       <c r="C437" t="n">
         <v>2001</v>
       </c>
-      <c r="D437" t="n">
-        <v>1.20925</v>
-      </c>
-      <c r="E437" t="n">
-        <v>1.20925</v>
-      </c>
+      <c r="D437"/>
+      <c r="E437"/>
     </row>
     <row r="438">
       <c r="A438" t="s">
@@ -7891,10 +7917,10 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>1.211125</v>
+        <v>1.136125</v>
       </c>
       <c r="E438" t="n">
-        <v>1.211125</v>
+        <v>1.136125</v>
       </c>
     </row>
     <row r="439">
@@ -7908,11 +7934,9 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>1.21375</v>
-      </c>
-      <c r="E439" t="n">
-        <v>1.21375</v>
-      </c>
+        <v>1.1286875</v>
+      </c>
+      <c r="E439"/>
     </row>
     <row r="440">
       <c r="A440" t="s">
@@ -7925,11 +7949,9 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>1.21725</v>
-      </c>
-      <c r="E440" t="n">
-        <v>1.21725</v>
-      </c>
+        <v>1.12125</v>
+      </c>
+      <c r="E440"/>
     </row>
     <row r="441">
       <c r="A441" t="s">
@@ -7942,11 +7964,9 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>1.228</v>
-      </c>
-      <c r="E441" t="n">
-        <v>1.228</v>
-      </c>
+        <v>1.1138125</v>
+      </c>
+      <c r="E441"/>
     </row>
     <row r="442">
       <c r="A442" t="s">
@@ -7959,11 +7979,9 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>1.227</v>
-      </c>
-      <c r="E442" t="n">
-        <v>1.227</v>
-      </c>
+        <v>1.106375</v>
+      </c>
+      <c r="E442"/>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -7976,11 +7994,9 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>1.2365</v>
-      </c>
-      <c r="E443" t="n">
-        <v>1.2365</v>
-      </c>
+        <v>1.0989375</v>
+      </c>
+      <c r="E443"/>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -7993,10 +8009,10 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>1.23225</v>
+        <v>1.0915</v>
       </c>
       <c r="E444" t="n">
-        <v>1.23225</v>
+        <v>1.0915</v>
       </c>
     </row>
     <row r="445">
@@ -8009,12 +8025,8 @@
       <c r="C445" t="n">
         <v>2009</v>
       </c>
-      <c r="D445" t="n">
-        <v>1.228375</v>
-      </c>
-      <c r="E445" t="n">
-        <v>1.228375</v>
-      </c>
+      <c r="D445"/>
+      <c r="E445"/>
     </row>
     <row r="446">
       <c r="A446" t="s">
@@ -8026,12 +8038,8 @@
       <c r="C446" t="n">
         <v>2010</v>
       </c>
-      <c r="D446" t="n">
-        <v>1.242</v>
-      </c>
-      <c r="E446" t="n">
-        <v>1.242</v>
-      </c>
+      <c r="D446"/>
+      <c r="E446"/>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -8043,12 +8051,8 @@
       <c r="C447" t="n">
         <v>2011</v>
       </c>
-      <c r="D447" t="n">
-        <v>1.243</v>
-      </c>
-      <c r="E447" t="n">
-        <v>1.243</v>
-      </c>
+      <c r="D447"/>
+      <c r="E447"/>
     </row>
     <row r="448">
       <c r="A448" t="s">
@@ -8060,12 +8064,8 @@
       <c r="C448" t="n">
         <v>2012</v>
       </c>
-      <c r="D448" t="n">
-        <v>1.24275</v>
-      </c>
-      <c r="E448" t="n">
-        <v>1.24275</v>
-      </c>
+      <c r="D448"/>
+      <c r="E448"/>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -32669,30 +32669,32 @@
       </c>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" t="n">
-        <v>1.136125</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.1286875</v>
-      </c>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" t="n">
-        <v>1.12125</v>
+        <v>1.152625</v>
       </c>
       <c r="H22" t="n">
-        <v>1.1138125</v>
+        <v>1.1549166667</v>
       </c>
       <c r="I22" t="n">
-        <v>1.106375</v>
+        <v>1.1572083333</v>
       </c>
       <c r="J22" t="n">
-        <v>1.0989375</v>
+        <v>1.1595</v>
       </c>
       <c r="K22" t="n">
-        <v>1.0915</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+        <v>1.195125</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.22875</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.232125</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
     </row>
@@ -32704,33 +32706,31 @@
         <v>48</v>
       </c>
       <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+      <c r="D23" t="n">
+        <v>1.166375</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.1652291667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.1640833333</v>
+      </c>
       <c r="G23" t="n">
-        <v>1.152625</v>
+        <v>1.1629375</v>
       </c>
       <c r="H23" t="n">
-        <v>1.1549166667</v>
+        <v>1.1617916667</v>
       </c>
       <c r="I23" t="n">
-        <v>1.1572083333</v>
+        <v>1.1606458333</v>
       </c>
       <c r="J23" t="n">
         <v>1.1595</v>
       </c>
-      <c r="K23" t="n">
-        <v>1.195125</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.224</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.22875</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.232125</v>
-      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
     </row>
@@ -32742,28 +32742,28 @@
         <v>50</v>
       </c>
       <c r="C24"/>
-      <c r="D24" t="n">
-        <v>1.166375</v>
-      </c>
+      <c r="D24"/>
       <c r="E24" t="n">
-        <v>1.1652291667</v>
+        <v>1.174375</v>
       </c>
       <c r="F24" t="n">
-        <v>1.1640833333</v>
+        <v>1.1803541667</v>
       </c>
       <c r="G24" t="n">
-        <v>1.1629375</v>
+        <v>1.1863333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1.1617916667</v>
+        <v>1.1923125</v>
       </c>
       <c r="I24" t="n">
-        <v>1.1606458333</v>
+        <v>1.1982916667</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1595</v>
-      </c>
-      <c r="K24"/>
+        <v>1.2042708333</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.21025</v>
+      </c>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -32779,26 +32779,24 @@
       </c>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25" t="n">
-        <v>1.174375</v>
-      </c>
+      <c r="E25"/>
       <c r="F25" t="n">
-        <v>1.1803541667</v>
+        <v>0.89625</v>
       </c>
       <c r="G25" t="n">
-        <v>1.1863333333</v>
+        <v>0.88885</v>
       </c>
       <c r="H25" t="n">
-        <v>1.1923125</v>
+        <v>0.88145</v>
       </c>
       <c r="I25" t="n">
-        <v>1.1982916667</v>
+        <v>0.87405</v>
       </c>
       <c r="J25" t="n">
-        <v>1.2042708333</v>
+        <v>0.86665</v>
       </c>
       <c r="K25" t="n">
-        <v>1.21025</v>
+        <v>0.85925</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -32817,26 +32815,32 @@
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="n">
-        <v>0.89625</v>
+        <v>0.9295</v>
       </c>
       <c r="G26" t="n">
-        <v>0.88885</v>
+        <v>0.94740625</v>
       </c>
       <c r="H26" t="n">
-        <v>0.88145</v>
+        <v>0.9653125</v>
       </c>
       <c r="I26" t="n">
-        <v>0.87405</v>
+        <v>0.98321875</v>
       </c>
       <c r="J26" t="n">
-        <v>0.86665</v>
+        <v>1.001125</v>
       </c>
       <c r="K26" t="n">
-        <v>0.85925</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+        <v>1.01903125</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.0369375</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05484375</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.07275</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
     </row>
@@ -32847,35 +32851,41 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
+      <c r="C27" t="n">
+        <v>1.239375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.2397916667</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.2402083333</v>
+      </c>
       <c r="F27" t="n">
-        <v>0.9295</v>
+        <v>1.240625</v>
       </c>
       <c r="G27" t="n">
-        <v>0.94740625</v>
+        <v>1.2418333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9653125</v>
+        <v>1.2430416667</v>
       </c>
       <c r="I27" t="n">
-        <v>0.98321875</v>
+        <v>1.24425</v>
       </c>
       <c r="J27" t="n">
-        <v>1.001125</v>
+        <v>1.2434166667</v>
       </c>
       <c r="K27" t="n">
-        <v>1.01903125</v>
+        <v>1.2425833333</v>
       </c>
       <c r="L27" t="n">
-        <v>1.0369375</v>
+        <v>1.24175</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05484375</v>
+        <v>1.2435</v>
       </c>
       <c r="N27" t="n">
-        <v>1.07275</v>
+        <v>1.24525</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -32887,41 +32897,37 @@
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.239375</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.2397916667</v>
-      </c>
+      <c r="C28"/>
+      <c r="D28"/>
       <c r="E28" t="n">
-        <v>1.2402083333</v>
+        <v>1.142875</v>
       </c>
       <c r="F28" t="n">
-        <v>1.240625</v>
+        <v>1.1622916667</v>
       </c>
       <c r="G28" t="n">
-        <v>1.2418333333</v>
+        <v>1.1817083333</v>
       </c>
       <c r="H28" t="n">
-        <v>1.2430416667</v>
+        <v>1.201125</v>
       </c>
       <c r="I28" t="n">
-        <v>1.24425</v>
+        <v>1.204625</v>
       </c>
       <c r="J28" t="n">
-        <v>1.2434166667</v>
+        <v>1.208125</v>
       </c>
       <c r="K28" t="n">
-        <v>1.2425833333</v>
+        <v>1.211625</v>
       </c>
       <c r="L28" t="n">
-        <v>1.24175</v>
+        <v>1.218125</v>
       </c>
       <c r="M28" t="n">
-        <v>1.2435</v>
+        <v>1.224625</v>
       </c>
       <c r="N28" t="n">
-        <v>1.24525</v>
+        <v>1.2335</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
@@ -32933,39 +32939,45 @@
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="C29" t="n">
+        <v>1.10675</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.13575</v>
+      </c>
       <c r="E29" t="n">
-        <v>1.142875</v>
+        <v>1.196875</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1622916667</v>
+        <v>1.2005</v>
       </c>
       <c r="G29" t="n">
-        <v>1.1817083333</v>
+        <v>1.210125</v>
       </c>
       <c r="H29" t="n">
-        <v>1.201125</v>
+        <v>1.214125</v>
       </c>
       <c r="I29" t="n">
-        <v>1.204625</v>
+        <v>1.182375</v>
       </c>
       <c r="J29" t="n">
-        <v>1.208125</v>
+        <v>1.199625</v>
       </c>
       <c r="K29" t="n">
+        <v>1.2045</v>
+      </c>
+      <c r="L29" t="n">
         <v>1.211625</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.218125</v>
-      </c>
       <c r="M29" t="n">
-        <v>1.224625</v>
+        <v>1.221</v>
       </c>
       <c r="N29" t="n">
-        <v>1.2335</v>
-      </c>
-      <c r="O29"/>
+        <v>1.22475</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.220875</v>
+      </c>
       <c r="P29"/>
     </row>
     <row r="30">
@@ -32975,45 +32987,21 @@
       <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.10675</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.13575</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.196875</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.2005</v>
-      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="n">
-        <v>1.210125</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.214125</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.182375</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.199625</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.2045</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.211625</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.221</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.22475</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.220875</v>
-      </c>
+        <v>0.98975</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30"/>
     </row>
     <row r="31">
@@ -33027,16 +33015,28 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31" t="n">
-        <v>0.98975</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="G31"/>
+      <c r="H31" t="n">
+        <v>0.96475</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9883958333</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.0120416667</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.0356875</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.0593333333</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.0829791667</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.106625</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
     </row>
@@ -33047,33 +33047,45 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="C32" t="n">
+        <v>1.214625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.20925</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.211125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.21375</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.21725</v>
+      </c>
       <c r="H32" t="n">
-        <v>0.96475</v>
+        <v>1.228</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9883958333</v>
+        <v>1.227</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0120416667</v>
+        <v>1.2365</v>
       </c>
       <c r="K32" t="n">
-        <v>1.0356875</v>
+        <v>1.23225</v>
       </c>
       <c r="L32" t="n">
-        <v>1.0593333333</v>
+        <v>1.228375</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0829791667</v>
+        <v>1.242</v>
       </c>
       <c r="N32" t="n">
-        <v>1.106625</v>
-      </c>
-      <c r="O32"/>
+        <v>1.243</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.24275</v>
+      </c>
       <c r="P32"/>
     </row>
     <row r="33">
@@ -33083,45 +33095,33 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.214625</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.20925</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33" t="n">
-        <v>1.211125</v>
+        <v>1.136125</v>
       </c>
       <c r="F33" t="n">
-        <v>1.21375</v>
+        <v>1.1286875</v>
       </c>
       <c r="G33" t="n">
-        <v>1.21725</v>
+        <v>1.12125</v>
       </c>
       <c r="H33" t="n">
-        <v>1.228</v>
+        <v>1.1138125</v>
       </c>
       <c r="I33" t="n">
-        <v>1.227</v>
+        <v>1.106375</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2365</v>
+        <v>1.0989375</v>
       </c>
       <c r="K33" t="n">
-        <v>1.23225</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.228375</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.242</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.243</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.24275</v>
-      </c>
+        <v>1.0915</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
       <c r="P33"/>
     </row>
     <row r="34">
@@ -37771,20 +37771,28 @@
       </c>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" t="n">
-        <v>1.136125</v>
-      </c>
+      <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
+      <c r="G22" t="n">
+        <v>1.152625</v>
+      </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
+      <c r="J22" t="n">
+        <v>1.1595</v>
+      </c>
       <c r="K22" t="n">
-        <v>1.0915</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+        <v>1.195125</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.22875</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.232125</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
     </row>
@@ -37796,29 +37804,21 @@
         <v>48</v>
       </c>
       <c r="C23"/>
-      <c r="D23"/>
+      <c r="D23" t="n">
+        <v>1.166375</v>
+      </c>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" t="n">
-        <v>1.152625</v>
-      </c>
+      <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
         <v>1.1595</v>
       </c>
-      <c r="K23" t="n">
-        <v>1.195125</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.224</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.22875</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.232125</v>
-      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
     </row>
@@ -37830,18 +37830,18 @@
         <v>50</v>
       </c>
       <c r="C24"/>
-      <c r="D24" t="n">
-        <v>1.166375</v>
-      </c>
-      <c r="E24"/>
+      <c r="D24"/>
+      <c r="E24" t="n">
+        <v>1.174375</v>
+      </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" t="n">
-        <v>1.1595</v>
-      </c>
-      <c r="K24"/>
+      <c r="J24"/>
+      <c r="K24" t="n">
+        <v>1.21025</v>
+      </c>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -37857,16 +37857,16 @@
       </c>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25" t="n">
-        <v>1.174375</v>
-      </c>
-      <c r="F25"/>
+      <c r="E25"/>
+      <c r="F25" t="n">
+        <v>0.89625</v>
+      </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" t="n">
-        <v>1.21025</v>
+        <v>0.85925</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -37885,18 +37885,18 @@
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="n">
-        <v>0.89625</v>
+        <v>0.9295</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="K26" t="n">
-        <v>0.85925</v>
-      </c>
+      <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26"/>
+      <c r="N26" t="n">
+        <v>1.07275</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
     </row>
@@ -37907,21 +37907,27 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="n">
+        <v>1.239375</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>0.9295</v>
+        <v>1.240625</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27"/>
+      <c r="I27" t="n">
+        <v>1.24425</v>
+      </c>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
+      <c r="L27" t="n">
+        <v>1.24175</v>
+      </c>
       <c r="M27"/>
       <c r="N27" t="n">
-        <v>1.07275</v>
+        <v>1.24525</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -37933,27 +37939,27 @@
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.239375</v>
-      </c>
+      <c r="C28"/>
       <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28" t="n">
-        <v>1.240625</v>
-      </c>
+      <c r="E28" t="n">
+        <v>1.142875</v>
+      </c>
+      <c r="F28"/>
       <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28" t="n">
-        <v>1.24425</v>
-      </c>
+      <c r="H28" t="n">
+        <v>1.201125</v>
+      </c>
+      <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28" t="n">
-        <v>1.24175</v>
-      </c>
-      <c r="M28"/>
+      <c r="K28" t="n">
+        <v>1.211625</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="n">
+        <v>1.224625</v>
+      </c>
       <c r="N28" t="n">
-        <v>1.24525</v>
+        <v>1.2335</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
@@ -37965,29 +37971,45 @@
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="C29" t="n">
+        <v>1.10675</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.13575</v>
+      </c>
       <c r="E29" t="n">
-        <v>1.142875</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29"/>
+        <v>1.196875</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.2005</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.210125</v>
+      </c>
       <c r="H29" t="n">
-        <v>1.201125</v>
-      </c>
-      <c r="I29"/>
-      <c r="J29"/>
+        <v>1.214125</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.182375</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.199625</v>
+      </c>
       <c r="K29" t="n">
+        <v>1.2045</v>
+      </c>
+      <c r="L29" t="n">
         <v>1.211625</v>
       </c>
-      <c r="L29"/>
       <c r="M29" t="n">
-        <v>1.224625</v>
+        <v>1.221</v>
       </c>
       <c r="N29" t="n">
-        <v>1.2335</v>
-      </c>
-      <c r="O29"/>
+        <v>1.22475</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.220875</v>
+      </c>
       <c r="P29"/>
     </row>
     <row r="30">
@@ -37997,45 +38019,21 @@
       <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.10675</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.13575</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.196875</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.2005</v>
-      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="n">
-        <v>1.210125</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.214125</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.182375</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.199625</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.2045</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.211625</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.221</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.22475</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.220875</v>
-      </c>
+        <v>0.98975</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30"/>
     </row>
     <row r="31">
@@ -38049,16 +38047,18 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31" t="n">
-        <v>0.98975</v>
-      </c>
-      <c r="H31"/>
+      <c r="G31"/>
+      <c r="H31" t="n">
+        <v>0.96475</v>
+      </c>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31"/>
+      <c r="N31" t="n">
+        <v>1.106625</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
     </row>
@@ -38069,23 +38069,45 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="C32" t="n">
+        <v>1.214625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.20925</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.211125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.21375</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.21725</v>
+      </c>
       <c r="H32" t="n">
-        <v>0.96475</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
+        <v>1.228</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.2365</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.23225</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.228375</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.242</v>
+      </c>
       <c r="N32" t="n">
-        <v>1.106625</v>
-      </c>
-      <c r="O32"/>
+        <v>1.243</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.24275</v>
+      </c>
       <c r="P32"/>
     </row>
     <row r="33">
@@ -38095,45 +38117,23 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.214625</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.20925</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33" t="n">
-        <v>1.211125</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.21375</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.21725</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.228</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.227</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.2365</v>
-      </c>
+        <v>1.136125</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
       <c r="K33" t="n">
-        <v>1.23225</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.228375</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.242</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.243</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.24275</v>
-      </c>
+        <v>1.0915</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
       <c r="P33"/>
     </row>
     <row r="34">
